--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Tgfbr3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H2">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J2">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N2">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O2">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P2">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q2">
-        <v>24.72559690285667</v>
+        <v>57.72886747318933</v>
       </c>
       <c r="R2">
-        <v>222.53037212571</v>
+        <v>519.559807258704</v>
       </c>
       <c r="S2">
-        <v>0.007775074091726556</v>
+        <v>0.03460435718263467</v>
       </c>
       <c r="T2">
-        <v>0.007775074091726555</v>
+        <v>0.03460435718263469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H3">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J3">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>167.922954</v>
       </c>
       <c r="O3">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P3">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q3">
-        <v>68.30913590228201</v>
+        <v>132.361872715208</v>
       </c>
       <c r="R3">
-        <v>614.782223120538</v>
+        <v>1191.256854436872</v>
       </c>
       <c r="S3">
-        <v>0.02148011208258028</v>
+        <v>0.07934154472936238</v>
       </c>
       <c r="T3">
-        <v>0.02148011208258028</v>
+        <v>0.07934154472936239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H4">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J4">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N4">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O4">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P4">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q4">
-        <v>0.08767554416744443</v>
+        <v>0.1451793133902222</v>
       </c>
       <c r="R4">
-        <v>0.7890798975069999</v>
+        <v>1.306613820512</v>
       </c>
       <c r="S4">
-        <v>2.756996543349642E-05</v>
+        <v>8.702469034955684E-05</v>
       </c>
       <c r="T4">
-        <v>2.756996543349642E-05</v>
+        <v>8.702469034955686E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H5">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J5">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N5">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q5">
-        <v>21.46004767025655</v>
+        <v>7.759852587638222</v>
       </c>
       <c r="R5">
-        <v>193.140429032309</v>
+        <v>69.838673288744</v>
       </c>
       <c r="S5">
-        <v>0.006748207588426355</v>
+        <v>0.004651480660900446</v>
       </c>
       <c r="T5">
-        <v>0.006748207588426355</v>
+        <v>0.004651480660900447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H6">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J6">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N6">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q6">
-        <v>0.2358889543841111</v>
+        <v>0.4308235378697778</v>
       </c>
       <c r="R6">
-        <v>2.123000589456999</v>
+        <v>3.877411840828</v>
       </c>
       <c r="S6">
-        <v>7.417633252544337E-05</v>
+        <v>0.0002582481216014835</v>
       </c>
       <c r="T6">
-        <v>7.417633252544337E-05</v>
+        <v>0.0002582481216014836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.220365666666667</v>
+        <v>2.364689333333333</v>
       </c>
       <c r="H7">
-        <v>3.661097</v>
+        <v>7.094068</v>
       </c>
       <c r="I7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="J7">
-        <v>0.03617655147864451</v>
+        <v>0.1189541930640913</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N7">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q7">
-        <v>0.2270962197557778</v>
+        <v>0.01924778294355555</v>
       </c>
       <c r="R7">
-        <v>2.043865977802</v>
+        <v>0.173230046492</v>
       </c>
       <c r="S7">
-        <v>7.141141795238881E-05</v>
+        <v>1.153767924274545E-05</v>
       </c>
       <c r="T7">
-        <v>7.141141795238881E-05</v>
+        <v>1.153767924274546E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>40.738953</v>
       </c>
       <c r="I8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J8">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N8">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O8">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P8">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q8">
-        <v>275.13472877731</v>
+        <v>331.518335986276</v>
       </c>
       <c r="R8">
-        <v>2476.21255899579</v>
+        <v>2983.665023876484</v>
       </c>
       <c r="S8">
-        <v>0.08651734111234033</v>
+        <v>0.1987217039445585</v>
       </c>
       <c r="T8">
-        <v>0.08651734111234032</v>
+        <v>0.1987217039445586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>40.738953</v>
       </c>
       <c r="I9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J9">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>167.922954</v>
       </c>
       <c r="O9">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P9">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q9">
-        <v>760.1117034030181</v>
+        <v>760.1117034030179</v>
       </c>
       <c r="R9">
-        <v>6841.005330627163</v>
+        <v>6841.005330627161</v>
       </c>
       <c r="S9">
-        <v>0.2390205112202627</v>
+        <v>0.4556329967061059</v>
       </c>
       <c r="T9">
-        <v>0.2390205112202627</v>
+        <v>0.455632996706106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>40.738953</v>
       </c>
       <c r="I10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J10">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N10">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O10">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P10">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q10">
-        <v>0.9756119198936665</v>
+        <v>0.8337181465946665</v>
       </c>
       <c r="R10">
-        <v>8.780507279042999</v>
+        <v>7.503463319351998</v>
       </c>
       <c r="S10">
-        <v>0.0003067855142889782</v>
+        <v>0.0004997548331916397</v>
       </c>
       <c r="T10">
-        <v>0.0003067855142889782</v>
+        <v>0.0004997548331916399</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>40.738953</v>
       </c>
       <c r="I11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J11">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N11">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O11">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P11">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q11">
-        <v>238.7972439452823</v>
+        <v>44.56233995145266</v>
       </c>
       <c r="R11">
-        <v>2149.175195507541</v>
+        <v>401.061059563074</v>
       </c>
       <c r="S11">
-        <v>0.07509085713357079</v>
+        <v>0.02671195878370946</v>
       </c>
       <c r="T11">
-        <v>0.07509085713357079</v>
+        <v>0.02671195878370946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>40.738953</v>
       </c>
       <c r="I12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J12">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N12">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O12">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P12">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q12">
-        <v>2.624860533843666</v>
+        <v>2.474081142240333</v>
       </c>
       <c r="R12">
-        <v>23.623744804593</v>
+        <v>22.266730280163</v>
       </c>
       <c r="S12">
-        <v>0.0008253990878871575</v>
+        <v>0.001483035979956933</v>
       </c>
       <c r="T12">
-        <v>0.0008253990878871575</v>
+        <v>0.001483035979956933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>40.738953</v>
       </c>
       <c r="I13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="J13">
-        <v>0.4025555264967247</v>
+        <v>0.6831157074320321</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N13">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O13">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P13">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q13">
-        <v>2.527019148388666</v>
+        <v>0.1105338325896666</v>
       </c>
       <c r="R13">
-        <v>22.743172335498</v>
+        <v>0.9948044933069998</v>
       </c>
       <c r="S13">
-        <v>0.0007946324283748078</v>
+        <v>6.625718450954835E-05</v>
       </c>
       <c r="T13">
-        <v>0.0007946324283748078</v>
+        <v>6.625718450954836E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H14">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I14">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J14">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N14">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O14">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P14">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q14">
-        <v>382.9163690960133</v>
+        <v>96.05613882865067</v>
       </c>
       <c r="R14">
-        <v>3446.24732186412</v>
+        <v>864.5052494578562</v>
       </c>
       <c r="S14">
-        <v>0.1204097580476387</v>
+        <v>0.05757883504565715</v>
       </c>
       <c r="T14">
-        <v>0.1204097580476387</v>
+        <v>0.05757883504565717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H15">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I15">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J15">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>167.922954</v>
       </c>
       <c r="O15">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P15">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q15">
-        <v>1057.878861268904</v>
+        <v>220.239387634912</v>
       </c>
       <c r="R15">
-        <v>9520.909751420135</v>
+        <v>1982.154488714208</v>
       </c>
       <c r="S15">
-        <v>0.3326547204806515</v>
+        <v>0.1320178754406141</v>
       </c>
       <c r="T15">
-        <v>0.3326547204806514</v>
+        <v>0.1320178754406142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H16">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I16">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J16">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N16">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O16">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P16">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q16">
-        <v>1.357799415844889</v>
+        <v>0.2415665661297778</v>
       </c>
       <c r="R16">
-        <v>12.220194742604</v>
+        <v>2.174099095168</v>
       </c>
       <c r="S16">
-        <v>0.0004269660749293112</v>
+        <v>0.0001448020046750373</v>
       </c>
       <c r="T16">
-        <v>0.0004269660749293112</v>
+        <v>0.0001448020046750373</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H17">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I17">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J17">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N17">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O17">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P17">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q17">
-        <v>332.343990189883</v>
+        <v>12.91176338760178</v>
       </c>
       <c r="R17">
-        <v>2991.095911708947</v>
+        <v>116.205870488416</v>
       </c>
       <c r="S17">
-        <v>0.1045070482147932</v>
+        <v>0.007739685389285406</v>
       </c>
       <c r="T17">
-        <v>0.1045070482147932</v>
+        <v>0.007739685389285407</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H18">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I18">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J18">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N18">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O18">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P18">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q18">
-        <v>3.653126849778221</v>
+        <v>0.7168553165102223</v>
       </c>
       <c r="R18">
-        <v>32.87814164800399</v>
+        <v>6.451697848592</v>
       </c>
       <c r="S18">
-        <v>0.00114874201157181</v>
+        <v>0.0004297038640557258</v>
       </c>
       <c r="T18">
-        <v>0.00114874201157181</v>
+        <v>0.0004297038640557259</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.89936133333333</v>
+        <v>3.934650666666667</v>
       </c>
       <c r="H19">
-        <v>56.69808399999999</v>
+        <v>11.803952</v>
       </c>
       <c r="I19">
-        <v>0.5602531576100035</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="J19">
-        <v>0.5602531576100034</v>
+        <v>0.1979300995038766</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N19">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O19">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P19">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q19">
-        <v>3.516956951371555</v>
+        <v>0.03202674487644445</v>
       </c>
       <c r="R19">
-        <v>31.65261256234399</v>
+        <v>0.288240703888</v>
       </c>
       <c r="S19">
-        <v>0.001105922780418997</v>
+        <v>1.919775958910511E-05</v>
       </c>
       <c r="T19">
-        <v>0.001105922780418997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.102695</v>
-      </c>
-      <c r="I20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J20">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>20.26081</v>
-      </c>
-      <c r="N20">
-        <v>60.78243000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.2149202666903252</v>
-      </c>
-      <c r="P20">
-        <v>0.2149202666903251</v>
-      </c>
-      <c r="Q20">
-        <v>0.6935612943166668</v>
-      </c>
-      <c r="R20">
-        <v>6.242051648850001</v>
-      </c>
-      <c r="S20">
-        <v>0.0002180934386195882</v>
-      </c>
-      <c r="T20">
-        <v>0.0002180934386195882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.102695</v>
-      </c>
-      <c r="I21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J21">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>55.974318</v>
-      </c>
-      <c r="N21">
-        <v>167.922954</v>
-      </c>
-      <c r="O21">
-        <v>0.5937578681389869</v>
-      </c>
-      <c r="P21">
-        <v>0.5937578681389868</v>
-      </c>
-      <c r="Q21">
-        <v>1.91609419567</v>
-      </c>
-      <c r="R21">
-        <v>17.24484776103</v>
-      </c>
-      <c r="S21">
-        <v>0.0006025243554925155</v>
-      </c>
-      <c r="T21">
-        <v>0.0006025243554925153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.102695</v>
-      </c>
-      <c r="I22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J22">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.07184366666666665</v>
-      </c>
-      <c r="N22">
-        <v>0.215531</v>
-      </c>
-      <c r="O22">
-        <v>0.0007620949014383343</v>
-      </c>
-      <c r="P22">
-        <v>0.0007620949014383344</v>
-      </c>
-      <c r="Q22">
-        <v>0.002459328449444444</v>
-      </c>
-      <c r="R22">
-        <v>0.022133956045</v>
-      </c>
-      <c r="S22">
-        <v>7.733467865486532E-07</v>
-      </c>
-      <c r="T22">
-        <v>7.733467865486533E-07</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.102695</v>
-      </c>
-      <c r="I23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J23">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>17.58493233333333</v>
-      </c>
-      <c r="N23">
-        <v>52.754797</v>
-      </c>
-      <c r="O23">
-        <v>0.1865354024252397</v>
-      </c>
-      <c r="P23">
-        <v>0.1865354024252397</v>
-      </c>
-      <c r="Q23">
-        <v>0.6019615419905555</v>
-      </c>
-      <c r="R23">
-        <v>5.417653877915</v>
-      </c>
-      <c r="S23">
-        <v>0.0001892894884493485</v>
-      </c>
-      <c r="T23">
-        <v>0.0001892894884493485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.102695</v>
-      </c>
-      <c r="I24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J24">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.1932936666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.5798809999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.00205039810301517</v>
-      </c>
-      <c r="P24">
-        <v>0.00205039810301517</v>
-      </c>
-      <c r="Q24">
-        <v>0.006616764366111109</v>
-      </c>
-      <c r="R24">
-        <v>0.05955087929499999</v>
-      </c>
-      <c r="S24">
-        <v>2.080671030759471E-06</v>
-      </c>
-      <c r="T24">
-        <v>2.080671030759471E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.03423166666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.102695</v>
-      </c>
-      <c r="I25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="J25">
-        <v>0.001014764414627473</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.1860886666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.5582659999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.001973969740994906</v>
-      </c>
-      <c r="P25">
-        <v>0.001973969740994906</v>
-      </c>
-      <c r="Q25">
-        <v>0.006370125207777778</v>
-      </c>
-      <c r="R25">
-        <v>0.05733112687</v>
-      </c>
-      <c r="S25">
-        <v>2.003114248713041E-06</v>
-      </c>
-      <c r="T25">
-        <v>2.003114248713041E-06</v>
+        <v>1.919775958910511E-05</v>
       </c>
     </row>
   </sheetData>
